--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_45_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_45_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.4814798844434613, 2.185709403756819]</t>
+          <t>[1.4863404421274096, 2.180848846072871]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.143529715363911e-13</v>
+        <v>7.30526750203353e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.143529715363911e-13</v>
+        <v>7.30526750203353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-2.855421551010543</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-3.044105794469389, -2.6667373075516965]</t>
+          <t>[-3.056684744033312, -2.6541583579877734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2345800955972217, 0.6302164920182027]</t>
+          <t>[0.2348995527605091, 0.6298970348549153]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.521014355853616e-05</v>
+        <v>6.373266295667257e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>6.521014355853616e-05</v>
+        <v>6.373266295667257e-05</v>
       </c>
       <c r="W2" t="n">
         <v>11.70674674674716</v>
       </c>
       <c r="X2" t="n">
-        <v>10.93317317317356</v>
+        <v>10.88160160160198</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.48032032032076</v>
+        <v>12.53189189189233</v>
       </c>
     </row>
   </sheetData>
